--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/StationModel.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/StationModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bendavis/Documents/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3DE379-2794-2447-85CA-79994732D64C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D940A0AF-725D-5A45-9F9D-FBC4F1F4352F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A5E90829-162B-AD4F-B677-3E383BDCB653}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>model_number</t>
-  </si>
-  <si>
-    <t>total_bays</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MN1</t>
   </si>
@@ -391,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6780B60-BFF0-F64A-BDF6-5B8916F724AC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,26 +399,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
         <v>6</v>
       </c>
     </row>
